--- a/figma_reports/scoring_test.xlsx
+++ b/figma_reports/scoring_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshaan/Desktop/Tennis Scouting/scouting_strategy_yr2526/figma_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{843AF5BD-104D-4F90-8F99-136D798DE1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901A95F-9BB6-0346-8CE8-DA9FA89DA5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B5CD10C8-1530-4D3E-84B7-42400BFAC0AB}"/>
+    <workbookView xWindow="1460" yWindow="4020" windowWidth="19420" windowHeight="11500" xr2:uid="{B5CD10C8-1530-4D3E-84B7-42400BFAC0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="scoring_test" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
-    <t>Ethan Li</t>
-  </si>
-  <si>
-    <t>Emma Li</t>
-  </si>
-  <si>
     <t>july 4th, 2027</t>
   </si>
   <si>
-    <t>ita</t>
-  </si>
-  <si>
     <t>july 4th, 2026</t>
   </si>
   <si>
@@ -80,10 +71,19 @@
     <t>match1name</t>
   </si>
   <si>
-    <t>Hello Bye</t>
-  </si>
-  <si>
-    <t>Hydro Flask</t>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>Niranjan</t>
+  </si>
+  <si>
+    <t>Eshaan Dhavala</t>
   </si>
 </sst>
 </file>
@@ -459,59 +459,59 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>0.18611111111111112</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>63</v>
@@ -523,21 +523,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>0.227777777777778</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>63</v>
@@ -549,21 +549,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0.26944444444444399</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>63</v>
